--- a/ArticleManage/main_working_folder/output_folders/Data 100 Characterization of activated carbon/Data100_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 100 Characterization of activated carbon/Data100_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="OS6_kwadrat" sheetId="1" r:id="rId1"/>
-    <sheet name="OS7_trojkat" sheetId="2" r:id="rId4"/>
-    <sheet name="OS8_kolo" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 OS6_kwadrat  0-1-30-40" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 OS7_trojkat  0-1-30-40" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 OS8_kolo  0-1-30-400 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OS6_kwadrat</a:t>
+              <a:t>Izoterma adsorpcji probki OS6_kwadrat z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OS6_kwadrat!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 OS6_kwadrat  0-1-30-40'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OS6_kwadrat!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 OS6_kwadrat  0-1-30-40'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OS7_trojkat</a:t>
+              <a:t>Izoterma adsorpcji probki OS7_trojkat z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OS7_trojkat!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 OS7_trojkat  0-1-30-40'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OS7_trojkat!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 OS7_trojkat  0-1-30-40'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OS8_kolo</a:t>
+              <a:t>Izoterma adsorpcji probki OS8_kolo z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OS8_kolo!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 OS8_kolo  0-1-30-400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OS8_kolo!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 OS8_kolo  0-1-30-400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 100 Characterization of activated carbon/Data100_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 100 Characterization of activated carbon/Data100_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 OS6_kwadrat  0-1-30-40" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 OS7_trojkat  0-1-30-40" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 OS8_kolo  0-1-30-400 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 OS6_square  0-1-30-400" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 OS7_triangle  0-1-30-4" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 OS8_circle  0-1-30-400" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>OS6_kwadrat</t>
+    <t>OS6_square</t>
   </si>
   <si>
     <t>X</t>
@@ -25,10 +25,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>OS7_trojkat</t>
+    <t>OS7_triangle</t>
   </si>
   <si>
-    <t>OS8_kolo</t>
+    <t>OS8_circle</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OS6_kwadrat z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki OS6_square z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 OS6_kwadrat  0-1-30-40'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 OS6_square  0-1-30-400'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 OS6_kwadrat  0-1-30-40'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 OS6_square  0-1-30-400'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -419,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OS7_trojkat z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki OS7_triangle z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 OS7_trojkat  0-1-30-40'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 OS7_triangle  0-1-30-4'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 OS7_trojkat  0-1-30-40'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 OS7_triangle  0-1-30-4'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -733,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OS8_kolo z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki OS8_circle z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 OS8_kolo  0-1-30-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 OS8_circle  0-1-30-400'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 OS8_kolo  0-1-30-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 OS8_circle  0-1-30-400'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3123,250 +3123,122 @@
         <v>0.0019</v>
       </c>
       <c r="B3" s="0">
-        <v>78.8163</v>
+        <v>79.7287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0058</v>
+        <v>0.0029</v>
       </c>
       <c r="B4" s="0">
-        <v>88.397</v>
+        <v>88.8533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0241</v>
+        <v>0.027</v>
       </c>
       <c r="B5" s="0">
-        <v>115.7707</v>
+        <v>121.2454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0337</v>
+        <v>0.0491</v>
       </c>
       <c r="B6" s="0">
-        <v>125.3514</v>
+        <v>136.7571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0434</v>
+        <v>0.1002</v>
       </c>
       <c r="B7" s="0">
-        <v>131.7386</v>
+        <v>153.1813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0578</v>
+        <v>0.1513</v>
       </c>
       <c r="B8" s="0">
-        <v>139.0382</v>
+        <v>164.5869</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0896</v>
+        <v>0.1975</v>
       </c>
       <c r="B9" s="0">
-        <v>149.5314</v>
+        <v>171.8866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1079</v>
+        <v>0.2495</v>
       </c>
       <c r="B10" s="0">
-        <v>155.4624</v>
+        <v>176.9051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1397</v>
+        <v>0.2977</v>
       </c>
       <c r="B11" s="0">
-        <v>161.8496</v>
+        <v>181.9236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1609</v>
+        <v>0.3439</v>
       </c>
       <c r="B12" s="0">
-        <v>165.9556</v>
+        <v>185.1171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1859</v>
+        <v>0.4981</v>
       </c>
       <c r="B13" s="0">
-        <v>169.6054</v>
+        <v>192.873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2062</v>
+        <v>0.5954</v>
       </c>
       <c r="B14" s="0">
-        <v>172.3428</v>
+        <v>196.0666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2389</v>
+        <v>0.6956</v>
       </c>
       <c r="B15" s="0">
-        <v>175.5364</v>
+        <v>199.2602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2582</v>
+        <v>0.8468</v>
       </c>
       <c r="B16" s="0">
-        <v>177.3613</v>
+        <v>201.5413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2861</v>
+        <v>0.8998</v>
       </c>
       <c r="B17" s="0">
-        <v>180.0986</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3083</v>
-      </c>
-      <c r="B18" s="0">
-        <v>181.9236</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3333</v>
-      </c>
-      <c r="B19" s="0">
-        <v>184.2047</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3536</v>
-      </c>
-      <c r="B20" s="0">
-        <v>185.1171</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4875</v>
-      </c>
-      <c r="B21" s="0">
-        <v>192.873</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5096</v>
-      </c>
-      <c r="B22" s="0">
-        <v>193.3292</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5848</v>
-      </c>
-      <c r="B23" s="0">
-        <v>195.6104</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.605</v>
-      </c>
-      <c r="B24" s="0">
-        <v>196.0666</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.684</v>
-      </c>
-      <c r="B25" s="0">
-        <v>197.8915</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7052</v>
-      </c>
-      <c r="B26" s="0">
-        <v>198.3477</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.7341</v>
-      </c>
-      <c r="B27" s="0">
-        <v>199.2602</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7505</v>
-      </c>
-      <c r="B28" s="0">
-        <v>199.7164</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8343</v>
-      </c>
-      <c r="B29" s="0">
-        <v>200.6289</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.8565</v>
-      </c>
-      <c r="B30" s="0">
-        <v>202.4538</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8902</v>
-      </c>
-      <c r="B31" s="0">
         <v>201.9975</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9104</v>
-      </c>
-      <c r="B32" s="0">
-        <v>201.9975</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9383</v>
-      </c>
-      <c r="B33" s="0">
-        <v>203.3662</v>
-      </c>
-    </row>
-    <row r="34"/>
+    <row r="18"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3375,7 +3247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3396,357 +3268,101 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0102</v>
+        <v>0.0058</v>
       </c>
       <c r="B3" s="0">
-        <v>235.2561</v>
+        <v>235.7583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0261</v>
+        <v>0.027</v>
       </c>
       <c r="B4" s="0">
-        <v>250.7175</v>
+        <v>251.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0479</v>
+        <v>0.0462</v>
       </c>
       <c r="B5" s="0">
-        <v>258.6075</v>
+        <v>259.0259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0697</v>
+        <v>0.1031</v>
       </c>
       <c r="B6" s="0">
-        <v>263.5112</v>
+        <v>270.4316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0916</v>
+        <v>0.1474</v>
       </c>
       <c r="B7" s="0">
-        <v>267.8613</v>
+        <v>274.9938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1134</v>
+        <v>0.2013</v>
       </c>
       <c r="B8" s="0">
-        <v>270.4187</v>
+        <v>279.5561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1368</v>
+        <v>0.2967</v>
       </c>
       <c r="B9" s="0">
-        <v>274.1277</v>
+        <v>283.2059</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1582</v>
+        <v>0.3497</v>
       </c>
       <c r="B10" s="0">
-        <v>275.8585</v>
+        <v>284.5746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1801</v>
+        <v>0.5029</v>
       </c>
       <c r="B11" s="0">
-        <v>277.1196</v>
+        <v>286.8557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2015</v>
+        <v>0.5954</v>
       </c>
       <c r="B12" s="0">
-        <v>278.3239</v>
+        <v>287.312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.224</v>
+        <v>0.6956</v>
       </c>
       <c r="B13" s="0">
-        <v>279.8287</v>
+        <v>288.6806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2464</v>
+        <v>0.8969</v>
       </c>
       <c r="B14" s="0">
-        <v>281.0325</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2681</v>
-      </c>
-      <c r="B15" s="0">
-        <v>281.1915</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2899</v>
-      </c>
-      <c r="B16" s="0">
-        <v>282.0433</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3115</v>
-      </c>
-      <c r="B17" s="0">
-        <v>282.2255</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3327</v>
-      </c>
-      <c r="B18" s="0">
-        <v>282.8406</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3546</v>
-      </c>
-      <c r="B19" s="0">
-        <v>283.7752</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3763</v>
-      </c>
-      <c r="B20" s="0">
-        <v>284.1633</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3986</v>
-      </c>
-      <c r="B21" s="0">
-        <v>284.6554</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4194</v>
-      </c>
-      <c r="B22" s="0">
-        <v>284.8567</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4423</v>
-      </c>
-      <c r="B23" s="0">
-        <v>285.3936</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4633</v>
-      </c>
-      <c r="B24" s="0">
-        <v>285.5781</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4855</v>
-      </c>
-      <c r="B25" s="0">
-        <v>285.7627</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5065</v>
-      </c>
-      <c r="B26" s="0">
-        <v>286.0395</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5296</v>
-      </c>
-      <c r="B27" s="0">
-        <v>286.6415</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5514</v>
-      </c>
-      <c r="B28" s="0">
-        <v>287.4368</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5732</v>
-      </c>
-      <c r="B29" s="0">
-        <v>286.87</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5966</v>
-      </c>
-      <c r="B30" s="0">
-        <v>286.4745</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6211</v>
-      </c>
-      <c r="B31" s="0">
-        <v>287.4069</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6418</v>
-      </c>
-      <c r="B32" s="0">
-        <v>288.3552</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6636</v>
-      </c>
-      <c r="B33" s="0">
-        <v>287.4852</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6876</v>
-      </c>
-      <c r="B34" s="0">
-        <v>287.6492</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7072</v>
-      </c>
-      <c r="B35" s="0">
-        <v>287.9489</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7291</v>
-      </c>
-      <c r="B36" s="0">
-        <v>288.1531</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7509</v>
-      </c>
-      <c r="B37" s="0">
-        <v>288.9703</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7728</v>
-      </c>
-      <c r="B38" s="0">
-        <v>288.3464</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7946</v>
-      </c>
-      <c r="B39" s="0">
-        <v>288.3464</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8242</v>
-      </c>
-      <c r="B40" s="0">
-        <v>288.8737</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.846</v>
-      </c>
-      <c r="B41" s="0">
-        <v>289.5688</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8678</v>
-      </c>
-      <c r="B42" s="0">
-        <v>288.9791</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8897</v>
-      </c>
-      <c r="B43" s="0">
-        <v>288.8473</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9115</v>
-      </c>
-      <c r="B44" s="0">
-        <v>288.5309</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.933</v>
-      </c>
-      <c r="B45" s="0">
-        <v>288.7155</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.952</v>
-      </c>
-      <c r="B46" s="0">
-        <v>290.1119</v>
-      </c>
-    </row>
-    <row r="47"/>
+        <v>289.5931</v>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3755,7 +3371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3776,341 +3392,125 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0089</v>
+        <v>0.948</v>
       </c>
       <c r="B3" s="0">
-        <v>277.3481</v>
+        <v>391.7879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0175</v>
+        <v>0.8969</v>
       </c>
       <c r="B4" s="0">
-        <v>294.1782</v>
+        <v>391.3317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0276</v>
+        <v>0.8487</v>
       </c>
       <c r="B5" s="0">
-        <v>306.7904</v>
+        <v>390.4192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0502</v>
+        <v>0.6985</v>
       </c>
       <c r="B6" s="0">
-        <v>319.9824</v>
+        <v>388.1381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0736</v>
+        <v>0.6012</v>
       </c>
       <c r="B7" s="0">
-        <v>328.8736</v>
+        <v>386.3132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.097</v>
+        <v>0.5019</v>
       </c>
       <c r="B8" s="0">
-        <v>338.0765</v>
+        <v>384.0321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1204</v>
+        <v>0.3459</v>
       </c>
       <c r="B9" s="0">
-        <v>344.0559</v>
+        <v>377.1887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1441</v>
+        <v>0.2958</v>
       </c>
       <c r="B10" s="0">
-        <v>350.9516</v>
+        <v>373.0826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1672</v>
+        <v>0.2534</v>
       </c>
       <c r="B11" s="0">
-        <v>355.1273</v>
+        <v>368.5203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1909</v>
+        <v>0.1975</v>
       </c>
       <c r="B12" s="0">
-        <v>360.2946</v>
+        <v>361.6769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2144</v>
+        <v>0.1484</v>
       </c>
       <c r="B13" s="0">
-        <v>363.3001</v>
+        <v>352.0962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2373</v>
+        <v>0.1012</v>
       </c>
       <c r="B14" s="0">
-        <v>367.0542</v>
+        <v>339.7781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2599</v>
+        <v>0.0472</v>
       </c>
       <c r="B15" s="0">
-        <v>369.1178</v>
+        <v>318.7916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2841</v>
+        <v>0.026</v>
       </c>
       <c r="B16" s="0">
-        <v>372.1321</v>
+        <v>306.0173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3076</v>
+        <v>0.0048</v>
       </c>
       <c r="B17" s="0">
-        <v>373.7931</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3308</v>
-      </c>
-      <c r="B18" s="0">
-        <v>375.8539</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3539</v>
-      </c>
-      <c r="B19" s="0">
-        <v>377.186</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3779</v>
-      </c>
-      <c r="B20" s="0">
-        <v>378.1959</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4022</v>
-      </c>
-      <c r="B21" s="0">
-        <v>379.356</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4259</v>
-      </c>
-      <c r="B22" s="0">
-        <v>380.277</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4489</v>
-      </c>
-      <c r="B23" s="0">
-        <v>381.1893</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4724</v>
-      </c>
-      <c r="B24" s="0">
-        <v>382.3088</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4965</v>
-      </c>
-      <c r="B25" s="0">
-        <v>383.4161</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5205</v>
-      </c>
-      <c r="B26" s="0">
-        <v>384.1989</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5428</v>
-      </c>
-      <c r="B27" s="0">
-        <v>385.0146</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5647</v>
-      </c>
-      <c r="B28" s="0">
-        <v>385.0506</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5896</v>
-      </c>
-      <c r="B29" s="0">
-        <v>385.9207</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6133</v>
-      </c>
-      <c r="B30" s="0">
-        <v>386.3567</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6364</v>
-      </c>
-      <c r="B31" s="0">
-        <v>387.2177</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6597</v>
-      </c>
-      <c r="B32" s="0">
-        <v>387.2981</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6837</v>
-      </c>
-      <c r="B33" s="0">
-        <v>387.8021</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7056</v>
-      </c>
-      <c r="B34" s="0">
-        <v>388.0035</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7315</v>
-      </c>
-      <c r="B35" s="0">
-        <v>388.7417</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7542</v>
-      </c>
-      <c r="B36" s="0">
-        <v>389.4021</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7782</v>
-      </c>
-      <c r="B37" s="0">
-        <v>389.4799</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8008</v>
-      </c>
-      <c r="B38" s="0">
-        <v>389.6502</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.825</v>
-      </c>
-      <c r="B39" s="0">
-        <v>390.2181</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8499</v>
-      </c>
-      <c r="B40" s="0">
-        <v>390.5921</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8733</v>
-      </c>
-      <c r="B41" s="0">
-        <v>390.9563</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8967</v>
-      </c>
-      <c r="B42" s="0">
-        <v>390.9846</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9177</v>
-      </c>
-      <c r="B43" s="0">
-        <v>390.9563</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9466</v>
-      </c>
-      <c r="B44" s="0">
-        <v>391.5809</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>277.275</v>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 100 Characterization of activated carbon/Data100_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 100 Characterization of activated carbon/Data100_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 OS6_square  0-1-30-400" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 OS7_triangle  0-1-30-4" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 OS8_circle  0-1-30-400" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 OS6_square  0&amp;1&amp;30&amp;400" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 OS7_triangle  0&amp;1&amp;30&amp;4" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 OS8_circle  0&amp;1&amp;30&amp;400" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 OS6_square  0-1-30-400'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 OS6_square  0&amp;1&amp;30&amp;400'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 OS6_square  0-1-30-400'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 OS6_square  0&amp;1&amp;30&amp;400'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 OS7_triangle  0-1-30-4'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 OS7_triangle  0&amp;1&amp;30&amp;4'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 OS7_triangle  0-1-30-4'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 OS7_triangle  0&amp;1&amp;30&amp;4'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 OS8_circle  0-1-30-400'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 OS8_circle  0&amp;1&amp;30&amp;400'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 OS8_circle  0-1-30-400'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 OS8_circle  0&amp;1&amp;30&amp;400'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
